--- a/Time Adjustment.xlsx
+++ b/Time Adjustment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rokon\Important Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,8 +49,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,16 +103,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +439,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,22 +453,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -481,7 +490,7 @@
       </c>
       <c r="F2" s="8">
         <f>C100-E100</f>
-        <v>-105</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -496,31 +505,103 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>42768</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>42771</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>42772</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>42773</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>42774</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>42777</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>42778</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>42779</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -788,7 +869,7 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6">
         <f>SUM(C2:C99)</f>
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="7">

--- a/Time Adjustment.xlsx
+++ b/Time Adjustment.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="F2" s="8">
         <f>C100-E100</f>
-        <v>145</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,63 +604,111 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>42780</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>42781</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C14" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>42782</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42784</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42786</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C17" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42788</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -869,7 +917,7 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6">
         <f>SUM(C2:C99)</f>
-        <v>295</v>
+        <v>450</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="7">

--- a/Time Adjustment.xlsx
+++ b/Time Adjustment.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="F2" s="8">
         <f>C100-E100</f>
-        <v>300</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,7 +670,15 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>42791</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C19" s="3">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -917,7 +925,7 @@
       <c r="B100" s="5"/>
       <c r="C100" s="6">
         <f>SUM(C2:C99)</f>
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="7">
